--- a/hourly datasets/cap_gen_year10final.xlsx
+++ b/hourly datasets/cap_gen_year10final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1043896680971193</v>
+        <v>0.1012351757471392</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004940521304440016</v>
+        <v>-6.589318244967414e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003419557750327591</v>
+        <v>0.0005674880895330798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9273741226429353</v>
+        <v>0.9795135246293617</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1691674951072786</v>
+        <v>0.03370482344440404</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001761827959109234</v>
+        <v>-0.001178152894107712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01164287056798927</v>
+        <v>0.001046366529208363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1093301894015593</v>
+        <v>0.1011692825646895</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002438770226007583</v>
+        <v>0.00291162297504885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004544780441600382</v>
+        <v>0.0007469998063396009</v>
       </c>
       <c r="D4" t="n">
-        <v>2.644853399994461</v>
+        <v>5.783590353173014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1102912597920512</v>
+        <v>0.0609781558597781</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00646901993637504</v>
+        <v>0.001447525661577126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01134656038839021</v>
+        <v>0.004375720288520576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1068284383231268</v>
+        <v>0.104146798722188</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0105988583296716</v>
+        <v>0.006762449917766807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006471164090654843</v>
+        <v>0.004721457749015145</v>
       </c>
       <c r="D5" t="n">
-        <v>2.168137207852173</v>
+        <v>5.930255750779664</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1526978701888952</v>
+        <v>0.1467808897680266</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002084691021648312</v>
+        <v>-0.0024914650115488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02328240768099153</v>
+        <v>0.01601636484708241</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1149885264267909</v>
+        <v>0.107997625664906</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008504183913299218</v>
+        <v>0.02143571216739928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003336440059299244</v>
+        <v>0.003003103530011584</v>
       </c>
       <c r="D6" t="n">
-        <v>2.022104190877689</v>
+        <v>8.97147740901482</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08368637780633605</v>
+        <v>0.03025110050235567</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01016202365054194</v>
+        <v>0.01554971729684603</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01475314569288852</v>
+        <v>0.02732170703795254</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1128938520104185</v>
+        <v>0.1226708879145384</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007614483684456834</v>
+        <v>0.03151197749777614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002760750615344788</v>
+        <v>0.007496828470972115</v>
       </c>
       <c r="D7" t="n">
-        <v>1.743105831905734</v>
+        <v>9.477369048377854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06234393748988491</v>
+        <v>0.07222834080136985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01443355729390044</v>
+        <v>0.01681841592586954</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01281495423710716</v>
+        <v>0.04620553906968274</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1120041517815761</v>
+        <v>0.1327471532449153</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00520176432661841</v>
+        <v>0.01566130156890224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002836475402342011</v>
+        <v>0.00486468554622695</v>
       </c>
       <c r="D8" t="n">
-        <v>1.667578038639262</v>
+        <v>10.31196551574564</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07511644454220656</v>
+        <v>0.1669509256071664</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007449311176772905</v>
+        <v>0.006126667363332324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01040640290237546</v>
+        <v>0.02519593577447217</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1095914324237377</v>
+        <v>0.1168964773160414</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005213788440095413</v>
+        <v>0.01888128793421891</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002737882843727127</v>
+        <v>0.004313933376101708</v>
       </c>
       <c r="D9" t="n">
-        <v>1.525389011377637</v>
+        <v>9.50168468968511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07244588320417693</v>
+        <v>0.06484465993604548</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003183586885425194</v>
+        <v>0.0104261099769643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0098493278818423</v>
+        <v>0.02733646589147354</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1096034565372147</v>
+        <v>0.1201164636813581</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1043896680971193</v>
+        <v>-0.1012351757471392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001549971756735122</v>
+        <v>0.0004569170895974157</v>
       </c>
       <c r="D10" t="n">
-        <v>-103.5094765495293</v>
+        <v>-231.2710280770786</v>
       </c>
       <c r="E10" t="n">
-        <v>6.768185624530605e-07</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1074276420811826</v>
+        <v>-0.1021307196290461</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1013516941130559</v>
+        <v>-0.1003396318652322</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04710858413174206</v>
+        <v>-0.04664907511981412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001653093131361201</v>
+        <v>0.0005022436580067734</v>
       </c>
       <c r="D11" t="n">
-        <v>-40.21560744909915</v>
+        <v>-94.69447320746909</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00388955923107292</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05034867751742327</v>
+        <v>-0.04763345772349965</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04386849074606081</v>
+        <v>-0.04566469251612856</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05728108396537721</v>
+        <v>0.05458610062732504</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03803285595322305</v>
+        <v>-0.03564490283051065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001626258238052133</v>
+        <v>0.0004930296048573858</v>
       </c>
       <c r="D12" t="n">
-        <v>-33.43278626420643</v>
+        <v>-73.40546459695268</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004896167860764643</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04122035425492164</v>
+        <v>-0.03661122617224972</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03484535765152448</v>
+        <v>-0.03467857948877159</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06635681214389622</v>
+        <v>0.0655902729166285</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03332561755748822</v>
+        <v>-0.03121984147822765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001596742774656783</v>
+        <v>0.0004846639115231738</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.78826027980616</v>
+        <v>-66.34369168636907</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002990673031698377</v>
+        <v>7.149166547085229e-187</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03645526596088877</v>
+        <v>-0.03216976830032803</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03019596915408765</v>
+        <v>-0.03026991465612728</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07106405053963104</v>
+        <v>0.0700153342689115</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0273159801091634</v>
+        <v>-0.02484604011828673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001568465332584296</v>
+        <v>0.0004719036128126717</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.30994623512469</v>
+        <v>-54.69510651557462</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003372366912736301</v>
+        <v>1.387789208973135e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03039020306195327</v>
+        <v>-0.02577095712519416</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02424175715637351</v>
+        <v>-0.0239211231113793</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07707368798795586</v>
+        <v>0.07638913562885241</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02317714962139943</v>
+        <v>-0.02161352500604998</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001561778027799898</v>
+        <v>0.0004636887179979733</v>
       </c>
       <c r="D15" t="n">
-        <v>-23.04151082283796</v>
+        <v>-47.81952074182018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01151109677802927</v>
+        <v>6.176359900274828e-46</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02623826630299721</v>
+        <v>-0.02252234107827477</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02011603293980165</v>
+        <v>-0.0207047089338252</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08121251847571984</v>
+        <v>0.07962165074108918</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02061790412834691</v>
+        <v>-0.01889730664974518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001547837785874044</v>
+        <v>0.0004542128935453514</v>
       </c>
       <c r="D16" t="n">
-        <v>-20.19483867780463</v>
+        <v>-42.6698625505022</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0258201639585264</v>
+        <v>5.78117023347495e-27</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02365169771760064</v>
+        <v>-0.01978755038488428</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01758411053909319</v>
+        <v>-0.01800706291460608</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08377176396877235</v>
+        <v>0.08233786909739398</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02003179082419169</v>
+        <v>-0.01842734644764261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001563983266875921</v>
+        <v>0.0004616591031851987</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.58690024892542</v>
+        <v>-41.34445837815888</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0236871043446092</v>
+        <v>2.092169898259992e-31</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02309723064802162</v>
+        <v>-0.01933218452491676</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01696635100036175</v>
+        <v>-0.01752250837036846</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08435787727292757</v>
+        <v>0.08280782929949654</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01776602912069405</v>
+        <v>-0.01576213634729972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001583196160262303</v>
+        <v>0.0004671509827339276</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.33349200175951</v>
+        <v>-35.33361813702189</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07389681634377436</v>
+        <v>2.735245380952394e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02086912532865448</v>
+        <v>-0.01667773834423398</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01466293291273362</v>
+        <v>-0.01484653435036545</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08662363897642521</v>
+        <v>0.08547303939983944</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01486291977193516</v>
+        <v>-0.01289638177448963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001584042165934625</v>
+        <v>0.0004642816788500543</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.8384403812906</v>
+        <v>-29.91969099351908</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05073341551154486</v>
+        <v>0.005533691752497484</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01796767606486349</v>
+        <v>-0.01380636002867284</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0117581634790068</v>
+        <v>-0.01198640352030644</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08952674832518411</v>
+        <v>0.08833879397264952</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01142355697972333</v>
+        <v>-0.009556246252433917</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001601152844114724</v>
+        <v>0.0004732218380064631</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.10053303018584</v>
+        <v>-21.53070293156033</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04289476641436374</v>
+        <v>0.04313611207010481</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01456184916572263</v>
+        <v>-0.01048374694876245</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008285264793724026</v>
+        <v>-0.008628745556105375</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09296611111739593</v>
+        <v>0.09167892949470524</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008769324539446543</v>
+        <v>-0.007483090728984607</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001591398845279928</v>
+        <v>0.0004678575007426358</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.836521027731685</v>
+        <v>-17.14187201933363</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06142122592820012</v>
+        <v>0.004006807459472007</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01188849884522055</v>
+        <v>-0.008400077466540227</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.005650150233672537</v>
+        <v>-0.006566103991428987</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09562034355767272</v>
+        <v>0.09375208501815455</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007722856546849778</v>
+        <v>-0.006643100040246571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001574208603192391</v>
+        <v>0.0004600386074716878</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.473931085480961</v>
+        <v>-15.29792069801092</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1038914721336004</v>
+        <v>0.08041343124995798</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01080833526112769</v>
+        <v>-0.007544761984005525</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004637377832571861</v>
+        <v>-0.005741438096487619</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09666681155026949</v>
+        <v>0.09459207570689258</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005474592377598494</v>
+        <v>-0.004521917638630506</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001574066189721334</v>
+        <v>0.0004544467219598246</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.142319191421739</v>
+        <v>-10.30063886520707</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05968637743778177</v>
+        <v>0.07351305597777417</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008559794152746516</v>
+        <v>-0.005412619638724751</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002389390602450477</v>
+        <v>-0.003631215638536261</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09891507571952077</v>
+        <v>0.09671325810850864</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004185604435692865</v>
+        <v>-0.004219403220280883</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001573746254999761</v>
+        <v>0.0004524574446649575</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.196411525506111</v>
+        <v>-9.399668561839025</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06879668267153566</v>
+        <v>0.09135848328437413</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007270178153564905</v>
+        <v>-0.005106206310932456</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001101030717820826</v>
+        <v>-0.003332600129629311</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1002040636614264</v>
+        <v>0.09701577252685827</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002165853822666285</v>
+        <v>-0.002246222561597904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001549223584933446</v>
+        <v>0.0004403535532082086</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.796563385182922</v>
+        <v>-5.027044111117814</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1234520645633824</v>
+        <v>0.08629822316105711</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005202360489898797</v>
+        <v>-0.003109302392396154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008706528445662249</v>
+        <v>-0.001383142730799654</v>
       </c>
       <c r="H25" t="n">
-        <v>0.102223814274453</v>
+        <v>0.09898895318554125</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005430829065334888</v>
+        <v>0.01546207237526988</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00102939994349351</v>
+        <v>0.001301714124591056</v>
       </c>
       <c r="D26" t="n">
-        <v>2.797883326755648</v>
+        <v>17.26932551464404</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1141851799032408</v>
+        <v>0.06454088899839001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003582232978346735</v>
+        <v>0.01291075199247867</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007091121423008731</v>
+        <v>0.01801339275806111</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1098204971624542</v>
+        <v>0.116697248122409</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year10final.xlsx
+++ b/hourly datasets/cap_gen_year10final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1012351757471392</v>
+        <v>0.1006135447392247</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.589318244967414e-05</v>
+        <v>-0.0009549836992069225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005674880895330798</v>
+        <v>0.0005621619298812819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9795135246293617</v>
+        <v>-0.1154170786535728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03370482344440404</v>
+        <v>0.0599336850169089</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001178152894107712</v>
+        <v>-0.002056804339130406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001046366529208363</v>
+        <v>0.0001468369407165614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1011692825646895</v>
+        <v>0.0996585610400178</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00291162297504885</v>
+        <v>0.001420510198526149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007469998063396009</v>
+        <v>0.0007450159009557338</v>
       </c>
       <c r="D4" t="n">
-        <v>5.783590353173014</v>
+        <v>4.246966947308789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0609781558597781</v>
+        <v>0.00368658736109291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001447525661577126</v>
+        <v>-3.969875028064385e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004375720288520576</v>
+        <v>0.002880719147332942</v>
       </c>
       <c r="H4" t="n">
-        <v>0.104146798722188</v>
+        <v>0.1020340549377509</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006762449917766807</v>
+        <v>0.00818216936882224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004721457749015145</v>
+        <v>0.005059932470842998</v>
       </c>
       <c r="D5" t="n">
-        <v>5.930255750779664</v>
+        <v>5.813509282399644</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1467808897680266</v>
+        <v>0.210716849480041</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0024914650115488</v>
+        <v>-0.001735146012228221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01601636484708241</v>
+        <v>0.0180994847498727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.107997625664906</v>
+        <v>0.108795714108047</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02143571216739928</v>
+        <v>0.01939941943698204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003003103530011584</v>
+        <v>0.00354828898441047</v>
       </c>
       <c r="D6" t="n">
-        <v>8.97147740901482</v>
+        <v>7.52878005164575</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03025110050235567</v>
+        <v>0.0555351061919581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01554971729684603</v>
+        <v>0.01244487705844787</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02732170703795254</v>
+        <v>0.02635396181551622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1226708879145384</v>
+        <v>0.1200129641762068</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03151197749777614</v>
+        <v>0.02929978431670437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007496828470972115</v>
+        <v>0.006876481755169926</v>
       </c>
       <c r="D7" t="n">
-        <v>9.477369048377854</v>
+        <v>8.580586623545759</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07222834080136985</v>
+        <v>0.03261092843875442</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01681841592586954</v>
+        <v>0.01582208119869311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04620553906968274</v>
+        <v>0.04277748743471563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1327471532449153</v>
+        <v>0.1299133290559291</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01566130156890224</v>
+        <v>0.01562319415331088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00486468554622695</v>
+        <v>0.005590708385923487</v>
       </c>
       <c r="D8" t="n">
-        <v>10.31196551574564</v>
+        <v>9.521276378021204</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1669509256071664</v>
+        <v>0.1095474921042414</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006126667363332324</v>
+        <v>0.004665576354220062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02519593577447217</v>
+        <v>0.02658081195240169</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1168964773160414</v>
+        <v>0.1162367388925356</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01888128793421891</v>
+        <v>0.01883915996159405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004313933376101708</v>
+        <v>0.005102882919710108</v>
       </c>
       <c r="D9" t="n">
-        <v>9.50168468968511</v>
+        <v>9.003759290886887</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06484465993604548</v>
+        <v>0.04950188129357201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0104261099769643</v>
+        <v>0.008837664149501578</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02733646589147354</v>
+        <v>0.02884065577368653</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1201164636813581</v>
+        <v>0.1194527047008188</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1012351757471392</v>
+        <v>-0.1006135447392247</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004569170895974157</v>
+        <v>0.0004538607500727466</v>
       </c>
       <c r="D10" t="n">
-        <v>-231.2710280770786</v>
+        <v>-230.027011017352</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1021307196290461</v>
+        <v>-0.1015030983090411</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1003396318652322</v>
+        <v>-0.09972399116940829</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04664907511981412</v>
+        <v>-0.04609648157922485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005022436580067734</v>
+        <v>0.0004956750474145786</v>
       </c>
       <c r="D11" t="n">
-        <v>-94.69447320746909</v>
+        <v>-95.67898742874031</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04763345772349965</v>
+        <v>-0.04706798991851945</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04566469251612856</v>
+        <v>-0.04512497323993025</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05458610062732504</v>
+        <v>0.05451706315999987</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03564490283051065</v>
+        <v>-0.03557552999596211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004930296048573858</v>
+        <v>0.0004862334052517808</v>
       </c>
       <c r="D12" t="n">
-        <v>-73.40546459695268</v>
+        <v>-75.12170368515783</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03661122617224972</v>
+        <v>-0.03652853300384587</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03467857948877159</v>
+        <v>-0.03462252698807834</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0655902729166285</v>
+        <v>0.06503801474326262</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03121984147822765</v>
+        <v>-0.03051268955990614</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004846639115231738</v>
+        <v>0.0004794797495661067</v>
       </c>
       <c r="D13" t="n">
-        <v>-66.34369168636907</v>
+        <v>-66.32292372954683</v>
       </c>
       <c r="E13" t="n">
-        <v>7.149166547085229e-187</v>
+        <v>1.619505569475157e-178</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03216976830032803</v>
+        <v>-0.03145245560340407</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03026991465612728</v>
+        <v>-0.02957292351640822</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0700153342689115</v>
+        <v>0.07010085517931858</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02484604011828673</v>
+        <v>-0.02423378369924819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004719036128126717</v>
+        <v>0.000465133831696881</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.69510651557462</v>
+        <v>-55.05369401216657</v>
       </c>
       <c r="E14" t="n">
-        <v>1.387789208973135e-10</v>
+        <v>5.581066000337294e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02577095712519416</v>
+        <v>-0.02514543215765121</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0239211231113793</v>
+        <v>-0.02332213524084519</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07638913562885241</v>
+        <v>0.07637976103997653</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02161352500604998</v>
+        <v>-0.02112775638214738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004636887179979733</v>
+        <v>0.0004580887189768593</v>
       </c>
       <c r="D15" t="n">
-        <v>-47.81952074182018</v>
+        <v>-48.43084112821256</v>
       </c>
       <c r="E15" t="n">
-        <v>6.176359900274828e-46</v>
+        <v>9.68512544610921e-32</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02252234107827477</v>
+        <v>-0.02202559663989568</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0207047089338252</v>
+        <v>-0.0202299161243991</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07962165074108918</v>
+        <v>0.07948578835707734</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01889730664974518</v>
+        <v>-0.0183442139086085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004542128935453514</v>
+        <v>0.0004491665909407174</v>
       </c>
       <c r="D16" t="n">
-        <v>-42.6698625505022</v>
+        <v>-42.58097424598284</v>
       </c>
       <c r="E16" t="n">
-        <v>5.78117023347495e-27</v>
+        <v>8.50198158637145e-22</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01978755038488428</v>
+        <v>-0.0192245670556137</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01800706291460608</v>
+        <v>-0.0174638607616033</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08233786909739398</v>
+        <v>0.08226933083061622</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01842734644764261</v>
+        <v>-0.01775295667862737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004616591031851987</v>
+        <v>0.0004569041704718106</v>
       </c>
       <c r="D17" t="n">
-        <v>-41.34445837815888</v>
+        <v>-41.17755188087452</v>
       </c>
       <c r="E17" t="n">
-        <v>2.092169898259992e-31</v>
+        <v>1.345703157086878e-26</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01933218452491676</v>
+        <v>-0.0186484752459973</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01752250837036846</v>
+        <v>-0.01685743811125743</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08280782929949654</v>
+        <v>0.08286058806059736</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01576213634729972</v>
+        <v>-0.01504536146478031</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004671509827339276</v>
+        <v>0.0004620510412219676</v>
       </c>
       <c r="D18" t="n">
-        <v>-35.33361813702189</v>
+        <v>-35.06106270540819</v>
       </c>
       <c r="E18" t="n">
-        <v>2.735245380952394e-10</v>
+        <v>9.194569155764097e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01667773834423398</v>
+        <v>-0.01595096774367015</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01484653435036545</v>
+        <v>-0.01413975518589048</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08547303939983944</v>
+        <v>0.0855681832744444</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01289638177448963</v>
+        <v>-0.0123956854810015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004642816788500543</v>
+        <v>0.0004586836415467792</v>
       </c>
       <c r="D19" t="n">
-        <v>-29.91969099351908</v>
+        <v>-29.58667675065983</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005533691752497484</v>
+        <v>0.0915273119216226</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01380636002867284</v>
+        <v>-0.01329469176136333</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01198640352030644</v>
+        <v>-0.01149667920063966</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08833879397264952</v>
+        <v>0.08821785925822323</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009556246252433917</v>
+        <v>-0.008981960308098207</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004732218380064631</v>
+        <v>0.0004676738591303373</v>
       </c>
       <c r="D20" t="n">
-        <v>-21.53070293156033</v>
+        <v>-20.74720448732368</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04313611207010481</v>
+        <v>0.01949832100120202</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01048374694876245</v>
+        <v>-0.009898587143332084</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008628745556105375</v>
+        <v>-0.008065333472864328</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09167892949470524</v>
+        <v>0.09163158443112651</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007483090728984607</v>
+        <v>-0.006867928590389411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004678575007426358</v>
+        <v>0.0004632421941182229</v>
       </c>
       <c r="D21" t="n">
-        <v>-17.14187201933363</v>
+        <v>-16.26774357179536</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004006807459472007</v>
+        <v>0.00416541608007111</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008400077466540227</v>
+        <v>-0.007775869480506303</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006566103991428987</v>
+        <v>-0.005959987700272518</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09375208501815455</v>
+        <v>0.09374561614883531</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006643100040246571</v>
+        <v>-0.006077398413455928</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004600386074716878</v>
+        <v>0.0004556272781102803</v>
       </c>
       <c r="D22" t="n">
-        <v>-15.29792069801092</v>
+        <v>-14.56492430275663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08041343124995798</v>
+        <v>0.06384833384414262</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007544761984005525</v>
+        <v>-0.006970414298668593</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005741438096487619</v>
+        <v>-0.005184382528243262</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09459207570689258</v>
+        <v>0.09453614632576879</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004521917638630506</v>
+        <v>-0.004107379870645705</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004544467219598246</v>
+        <v>0.0004509264837166476</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.30063886520707</v>
+        <v>-9.611859764071195</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07351305597777417</v>
+        <v>0.03479587799251276</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005412619638724751</v>
+        <v>-0.004991182322824165</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003631215638536261</v>
+        <v>-0.003223577418467247</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09671325810850864</v>
+        <v>0.09650616486857902</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004219403220280883</v>
+        <v>-0.003744709483554393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004524574446649575</v>
+        <v>0.0004484797746691367</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.399668561839025</v>
+        <v>-8.541321271622094</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09135848328437413</v>
+        <v>0.1170270483261688</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005106206310932456</v>
+        <v>-0.004623716473291995</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003332600129629311</v>
+        <v>-0.002865702493816793</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09701577252685827</v>
+        <v>0.09686883525567033</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002246222561597904</v>
+        <v>-0.00190300226079025</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004403535532082086</v>
+        <v>0.0004355529660630692</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.027044111117814</v>
+        <v>-4.291968497390211</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08629822316105711</v>
+        <v>0.1207885265673345</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003109302392396154</v>
+        <v>-0.00275667309725462</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001383142730799654</v>
+        <v>-0.00104933142432588</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09898895318554125</v>
+        <v>0.09871054247843447</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01546207237526988</v>
+        <v>0.01023368877400654</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001301714124591056</v>
+        <v>0.001379554095949294</v>
       </c>
       <c r="D26" t="n">
-        <v>17.26932551464404</v>
+        <v>12.51525175750176</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06454088899839001</v>
+        <v>0.06098396008552329</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01291075199247867</v>
+        <v>0.007529804351871744</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01801339275806111</v>
+        <v>0.01293757319614134</v>
       </c>
       <c r="H26" t="n">
-        <v>0.116697248122409</v>
+        <v>0.1108472335132313</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year10final.xlsx
+++ b/hourly datasets/cap_gen_year10final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,563 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1006135447392247</v>
+        <v>0.1465515154580294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0009549836992069225</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005621619298812819</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1154170786535728</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0599336850169089</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.002056804339130406</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0001468369407165614</v>
-      </c>
+        <v>0.0926120339059258</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.0996585610400178</v>
+        <v>0.2391635493639552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001420510198526149</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0007450159009557338</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.246966947308789</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00368658736109291</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-3.969875028064385e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.002880719147332942</v>
-      </c>
+        <v>0.07113461966364296</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1020340549377509</v>
+        <v>0.2176861351216724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00818216936882224</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005059932470842998</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.813509282399644</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.210716849480041</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.001735146012228221</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0180994847498727</v>
-      </c>
+        <v>0.04561808328750092</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.108795714108047</v>
+        <v>0.1921695987455304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01939941943698204</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.00354828898441047</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.52878005164575</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0555351061919581</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01244487705844787</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02635396181551622</v>
-      </c>
+        <v>0.02612829889853301</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1200129641762068</v>
+        <v>0.1726798143565625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02929978431670437</v>
+        <v>0.01315523807488388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006876481755169926</v>
+        <v>0.0009140085662290448</v>
       </c>
       <c r="D7" t="n">
-        <v>8.580586623545759</v>
+        <v>1.666523276268238</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03261092843875442</v>
+        <v>0.005537463049756171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01582208119869311</v>
+        <v>0.01136266585504183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04277748743471563</v>
+        <v>0.01494781029472584</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1299133290559291</v>
+        <v>0.1597067535329133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01562319415331088</v>
+        <v>0.01272973611672641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005590708385923487</v>
+        <v>0.0009339095865801024</v>
       </c>
       <c r="D8" t="n">
-        <v>9.521276378021204</v>
+        <v>1.625926813018938</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1095474921042414</v>
+        <v>0.004109950730950559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004665576354220062</v>
+        <v>0.01089786447745672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02658081195240169</v>
+        <v>0.01456160775599592</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1162367388925356</v>
+        <v>0.1592812515747558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01883915996159405</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.005102882919710108</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.003759290886887</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04950188129357201</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.008837664149501578</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02884065577368653</v>
-      </c>
+        <v>0.01030500162425861</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.1194527047008188</v>
+        <v>0.1568565170822881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1006135447392247</v>
+        <v>0.01052336671994352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004538607500727466</v>
+        <v>0.0006344347004012589</v>
       </c>
       <c r="D10" t="n">
-        <v>-230.027011017352</v>
+        <v>1.268084767664965</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.002327862468217083</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1015030983090411</v>
+        <v>0.00927909723652063</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09972399116940829</v>
+        <v>0.01176763620336597</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.157074882177973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04609648157922485</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004956750474145786</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-95.67898742874031</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04706798991851945</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04512497323993025</v>
-      </c>
+        <v>0.02953777445583751</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05451706315999987</v>
+        <v>0.176089289913867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03557552999596211</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004862334052517808</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-75.12170368515783</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03652853300384587</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03462252698807834</v>
-      </c>
+        <v>0.05096330831075999</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06503801474326262</v>
+        <v>0.1975148237687894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03051268955990614</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004794797495661067</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-66.32292372954683</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.619505569475157e-178</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03145245560340407</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02957292351640822</v>
-      </c>
+        <v>0.06347954746166709</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07010085517931858</v>
+        <v>0.2100310629196965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02423378369924819</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000465133831696881</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-55.05369401216657</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.581066000337294e-10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02514543215765121</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02332213524084519</v>
-      </c>
+        <v>0.07175647446349996</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07637976103997653</v>
+        <v>0.2183079899215294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02112775638214738</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004580887189768593</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-48.43084112821256</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.68512544610921e-32</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02202559663989568</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0202299161243991</v>
-      </c>
+        <v>0.07858800679247055</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07948578835707734</v>
+        <v>0.2251395222505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0183442139086085</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004491665909407174</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-42.58097424598284</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.50198158637145e-22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.0192245670556137</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.0174638607616033</v>
-      </c>
+        <v>0.08248994860298538</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08226933083061622</v>
+        <v>0.2290414640610148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01775295667862737</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004569041704718106</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-41.17755188087452</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.345703157086878e-26</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.0186484752459973</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01685743811125743</v>
-      </c>
+        <v>0.08371450300573549</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08286058806059736</v>
+        <v>0.2302660184637649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01504536146478031</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004620510412219676</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-35.06106270540819</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.194569155764097e-06</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01595096774367015</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01413975518589048</v>
-      </c>
+        <v>-0.1465515154580294</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.0855681832744444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0123956854810015</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004586836415467792</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-29.58667675065983</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0915273119216226</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01329469176136333</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01149667920063966</v>
-      </c>
+        <v>0.08455368366738766</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08821785925822323</v>
+        <v>0.2311051991254171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008981960308098207</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0004676738591303373</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-20.74720448732368</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.01949832100120202</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.009898587143332084</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.008065333472864328</v>
-      </c>
+        <v>0.08901065770479991</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09163158443112651</v>
+        <v>0.2355621731628293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006867928590389411</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004632421941182229</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-16.26774357179536</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.00416541608007111</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.007775869480506303</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.005959987700272518</v>
-      </c>
+        <v>0.0906200463892138</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09374561614883531</v>
+        <v>0.2371715618472433</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006077398413455928</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004556272781102803</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-14.56492430275663</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.06384833384414262</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006970414298668593</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005184382528243262</v>
-      </c>
+        <v>0.0949118063172731</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.09453614632576879</v>
+        <v>0.2414633217753026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004107379870645705</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004509264837166476</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-9.611859764071195</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03479587799251276</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.004991182322824165</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.003223577418467247</v>
-      </c>
+        <v>0.09916924508727365</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09650616486857902</v>
+        <v>0.2457207605453031</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003744709483554393</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004484797746691367</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-8.541321271622094</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1170270483261688</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004623716473291995</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002865702493816793</v>
-      </c>
+        <v>0.1013221144625254</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09686883525567033</v>
+        <v>0.2478736299205548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00190300226079025</v>
+        <v>0.1021233101119653</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004355529660630692</v>
+        <v>0.007483242729335747</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.291968497390211</v>
+        <v>3739111683125.926</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1207885265673345</v>
+        <v>0.0547229545225339</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00275667309725462</v>
+        <v>0.08736384172104496</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.00104933142432588</v>
+        <v>0.1168827785028859</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09871054247843447</v>
+        <v>0.2486748255699948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.104170503925268</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2507220193832974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1056241099660643</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007565820595883723</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2186055959831.103</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07433497300982765</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09075049285469936</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1204977270774298</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2521756254240937</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1015022146681243</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007042592133371688</v>
+      </c>
+      <c r="D28" t="n">
+        <v>956840347423.429</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1186619092698471</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08767020832654802</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1153342210097009</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2480537301261538</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.01023368877400654</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001379554095949294</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12.51525175750176</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.06098396008552329</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.007529804351871744</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01293757319614134</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1108472335132313</v>
+      <c r="B29" t="n">
+        <v>0.01116455133871423</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0006734440232662058</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.505508917333346</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00506598019283495</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.009844044631357081</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01248505804607122</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1577160667967437</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year10final.xlsx
+++ b/hourly datasets/cap_gen_year10final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1465515154580294</v>
+        <v>0.1025354202104953</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0926120339059258</v>
+        <v>0.09438849744921556</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2391635493639552</v>
+        <v>0.1969239176597109</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07113461966364296</v>
+        <v>0.07262270252128764</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2176861351216724</v>
+        <v>0.1751581227317829</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04561808328750092</v>
+        <v>0.04880804554619359</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1921695987455304</v>
+        <v>0.1513434657566889</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02612829889853301</v>
+        <v>0.03060681022136408</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1726798143565625</v>
+        <v>0.1331422304318594</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01315523807488388</v>
+        <v>0.01967513280245653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009140085662290448</v>
+        <v>0.002401627296344176</v>
       </c>
       <c r="D7" t="n">
-        <v>1.666523276268238</v>
+        <v>2.025554899249398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005537463049756171</v>
+        <v>0.01094939379502432</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01136266585504183</v>
+        <v>0.01495807827251136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01494781029472584</v>
+        <v>0.02439218733240197</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1597067535329133</v>
+        <v>0.1222105530129518</v>
       </c>
     </row>
     <row r="8">
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01272973611672641</v>
+        <v>0.01880783187435991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009339095865801024</v>
+        <v>0.002530411786938378</v>
       </c>
       <c r="D8" t="n">
-        <v>1.625926813018938</v>
+        <v>2.015292309059852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004109950730950559</v>
+        <v>0.007783556192342187</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01089786447745672</v>
+        <v>0.01382927390775375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01456160775599592</v>
+        <v>0.02378638984096626</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1592812515747558</v>
+        <v>0.1213432520848552</v>
       </c>
     </row>
     <row r="9">
@@ -628,15 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01030500162425861</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>0.01782325126250029</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002140609952760626</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.774552441494788</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.004373944970796132</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01362314459485887</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02202335793014191</v>
+      </c>
       <c r="H9" t="n">
-        <v>0.1568565170822881</v>
+        <v>0.1203586714729956</v>
       </c>
     </row>
     <row r="10">
@@ -646,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01052336671994352</v>
+        <v>0.01781243772760065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006344347004012589</v>
+        <v>0.001993052578255619</v>
       </c>
       <c r="D10" t="n">
-        <v>1.268084767664965</v>
+        <v>1.608405485260382</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002327862468217083</v>
+        <v>0.005759683438276856</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00927909723652063</v>
+        <v>0.01389698689346763</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01176763620336597</v>
+        <v>0.02172788856173453</v>
       </c>
       <c r="H10" t="n">
-        <v>0.157074882177973</v>
+        <v>0.120347857938096</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02953777445583751</v>
+        <v>0.03045470186181892</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -682,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.176089289913867</v>
+        <v>0.1329901220723142</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05096330831075999</v>
+        <v>0.05251030857758803</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -700,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1975148237687894</v>
+        <v>0.1550457287880833</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06347954746166709</v>
+        <v>0.06517608269330417</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -718,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2100310629196965</v>
+        <v>0.1677115029037995</v>
       </c>
     </row>
     <row r="14">
@@ -728,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07175647446349996</v>
+        <v>0.07306994158361906</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -736,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2183079899215294</v>
+        <v>0.1756053617941144</v>
       </c>
     </row>
     <row r="15">
@@ -746,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07858800679247055</v>
+        <v>0.08049854346949885</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -754,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2251395222505</v>
+        <v>0.1830339636799942</v>
       </c>
     </row>
     <row r="16">
@@ -764,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08248994860298538</v>
+        <v>0.08373282897400397</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -772,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2290414640610148</v>
+        <v>0.1862682491844993</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08371450300573549</v>
+        <v>0.08495449961570588</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -790,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2302660184637649</v>
+        <v>0.1874899198262012</v>
       </c>
     </row>
     <row r="18">
@@ -800,13 +810,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1465515154580294</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1025354202104953</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008773877970870389</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-147864385954.2316</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03158185907953013</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1197770267284051</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08529381369258568</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -818,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08455368366738766</v>
+        <v>0.08524194045651438</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -826,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2311051991254171</v>
+        <v>0.1877773606670097</v>
       </c>
     </row>
     <row r="20">
@@ -836,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08901065770479991</v>
+        <v>0.09045507513899632</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -844,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2355621731628293</v>
+        <v>0.1929904953494916</v>
       </c>
     </row>
     <row r="21">
@@ -854,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0906200463892138</v>
+        <v>0.09267026568961423</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -862,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2371715618472433</v>
+        <v>0.1952056859001096</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0949118063172731</v>
+        <v>0.09445513381055611</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -880,7 +900,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2414633217753026</v>
+        <v>0.1969905540210514</v>
       </c>
     </row>
     <row r="23">
@@ -890,15 +910,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09916924508727365</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.1003439645995695</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.007970831847943354</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1596169204495.518</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04506884183514018</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08466526849088823</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.116022660708251</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2457207605453031</v>
+        <v>0.2028793848100648</v>
       </c>
     </row>
     <row r="24">
@@ -908,15 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1013221144625254</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1016688522498076</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00761966757086134</v>
+      </c>
+      <c r="D24" t="n">
+        <v>970354239318.228</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04728213471158763</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08669501588202619</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1166426886175892</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2478736299205548</v>
+        <v>0.2042042724603029</v>
       </c>
     </row>
     <row r="25">
@@ -926,25 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1021233101119653</v>
+        <v>0.1030306421282219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007483242729335747</v>
+        <v>0.00810560903366833</v>
       </c>
       <c r="D25" t="n">
-        <v>3739111683125.926</v>
+        <v>3111251340495.385</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0547229545225339</v>
+        <v>0.05795883556857434</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08736384172104496</v>
+        <v>0.08708429616865478</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1168827785028859</v>
+        <v>0.1189769880877886</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2486748255699948</v>
+        <v>0.2055660623387172</v>
       </c>
     </row>
     <row r="26">
@@ -954,7 +994,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.104170503925268</v>
+        <v>0.1052088270725087</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -962,7 +1002,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0.2507220193832974</v>
+        <v>0.207744247283004</v>
       </c>
     </row>
     <row r="27">
@@ -972,25 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1056241099660643</v>
+        <v>0.1056437687550505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007565820595883723</v>
+        <v>0.00829279257810839</v>
       </c>
       <c r="D27" t="n">
-        <v>2186055959831.103</v>
+        <v>1126179147947.119</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07433497300982765</v>
+        <v>0.07498685944630981</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09075049285469936</v>
+        <v>0.08933459140845156</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1204977270774298</v>
+        <v>0.1219529461016493</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2521756254240937</v>
+        <v>0.2081791889655458</v>
       </c>
     </row>
     <row r="28">
@@ -1000,25 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1015022146681243</v>
+        <v>0.102342716796393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007042592133371688</v>
+        <v>0.007681622173093967</v>
       </c>
       <c r="D28" t="n">
-        <v>956840347423.429</v>
+        <v>20.44270115233925</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1186619092698471</v>
+        <v>0.1177495005018594</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08767020832654802</v>
+        <v>0.08725755755123202</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1153342210097009</v>
+        <v>0.1174278760415537</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2480537301261538</v>
+        <v>0.2048781370068883</v>
       </c>
     </row>
     <row r="29">
@@ -1028,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01116455133871423</v>
+        <v>0.01956145910228603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006734440232662058</v>
+        <v>0.002134752326741195</v>
       </c>
       <c r="D29" t="n">
-        <v>1.505508917333346</v>
+        <v>2.201256146179134</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00506598019283495</v>
+        <v>0.009606414221899074</v>
       </c>
       <c r="F29" t="n">
-        <v>0.009844044631357081</v>
+        <v>0.01535772402258803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01248505804607122</v>
+        <v>0.02376519418198398</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1577160667967437</v>
+        <v>0.1220968793127813</v>
       </c>
     </row>
   </sheetData>
